--- a/1_data/ST2.xlsx
+++ b/1_data/ST2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA689B60-1E76-4897-8474-C9D668AB729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30088230-CE1A-43CB-AE5B-F31716F3D78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{431947E0-5B84-4DD2-8604-8D7EB6DFDD90}"/>
+    <workbookView xWindow="37830" yWindow="2025" windowWidth="17280" windowHeight="8880" xr2:uid="{431947E0-5B84-4DD2-8604-8D7EB6DFDD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39928F47-AAC9-4184-A84B-330D00D38C62}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,28 +558,6 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>76</v>
-      </c>
-      <c r="B15">
-        <v>33.9</v>
-      </c>
-      <c r="C15">
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>78</v>
-      </c>
-      <c r="B16">
-        <v>28.6</v>
-      </c>
-      <c r="C16">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
